--- a/data/trans_dic/P3A_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>14,94; 19,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>17,47; 22,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>18,83; 24,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>14,55; 20,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,08; 8,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,52; 9,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,56; 10,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,53; 10,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>10,32; 12,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>11,8; 14,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>12,45; 15,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>10,78; 13,83</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>19,29; 23,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>26,82; 31,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>31,67; 35,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>17,67; 29,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,24; 13,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,11; 18,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>18,35; 21,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>15,0; 23,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,27; 17,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>21,71; 24,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>25,63; 28,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>19,08; 26,29</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,47%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,48; 31,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>32,22; 41,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>37,83; 46,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>34,06; 42,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>21,35; 29,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>23,93; 32,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>28,41; 36,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>27,97; 34,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>23,65; 29,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>29,13; 35,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>34,16; 40,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>32,22; 37,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,52; 22,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>26,1; 29,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>30,73; 33,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,91; 29,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,89; 13,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,76; 16,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,22; 19,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,75; 21,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,46; 17,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>20,05; 22,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,22; 26,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>20,5; 25,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,48</t>
+          <t>14,91; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 22,84</t>
+          <t>17,44; 22,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,83; 24,51</t>
+          <t>19,11; 24,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,52</t>
+          <t>14,12; 20,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,87</t>
+          <t>5,94; 8,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,46</t>
+          <t>6,34; 9,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,11</t>
+          <t>6,66; 10,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,75</t>
+          <t>7,51; 10,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 12,92</t>
+          <t>10,51; 13,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,8; 14,77</t>
+          <t>11,76; 14,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 15,71</t>
+          <t>12,52; 15,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 13,83</t>
+          <t>10,73; 14,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,29; 23,4</t>
+          <t>18,97; 23,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,82; 31,15</t>
+          <t>26,77; 31,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,67; 35,89</t>
+          <t>31,71; 35,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 29,93</t>
+          <t>18,54; 30,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 13,44</t>
+          <t>10,29; 13,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,11; 18,62</t>
+          <t>14,85; 18,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 21,95</t>
+          <t>18,31; 22,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 23,77</t>
+          <t>14,64; 23,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,27; 17,9</t>
+          <t>15,19; 17,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 24,46</t>
+          <t>21,59; 24,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 28,6</t>
+          <t>25,6; 28,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 26,29</t>
+          <t>18,55; 26,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,48; 31,47</t>
+          <t>23,51; 31,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,22; 41,44</t>
+          <t>32,31; 41,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,83; 46,45</t>
+          <t>38,18; 46,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,06; 42,26</t>
+          <t>34,09; 42,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,35; 29,48</t>
+          <t>21,6; 29,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,83</t>
+          <t>23,86; 33,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 36,34</t>
+          <t>28,28; 36,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 34,34</t>
+          <t>28,17; 34,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,65; 29,74</t>
+          <t>23,83; 29,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,9</t>
+          <t>29,36; 36,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,16; 40,21</t>
+          <t>34,45; 40,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,22; 37,37</t>
+          <t>31,98; 37,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 22,43</t>
+          <t>19,39; 22,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 29,22</t>
+          <t>26,06; 29,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,73; 33,97</t>
+          <t>30,87; 34,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,91; 29,64</t>
+          <t>20,87; 29,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 13,16</t>
+          <t>10,9; 13,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 16,14</t>
+          <t>13,56; 16,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 19,87</t>
+          <t>17,26; 19,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,85</t>
+          <t>16,12; 21,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,27</t>
+          <t>15,51; 17,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 22,1</t>
+          <t>20,14; 22,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,42</t>
+          <t>24,33; 26,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,5; 25,17</t>
+          <t>20,41; 25,14</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>176485</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>196819</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>163551</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88242</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97035</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>105522</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>81361</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>67264</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>273520</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>302341</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>244913</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>155506</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>153806; 200192</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>169830; 223088</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>143660; 187831</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>72727; 103911</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78091; 116676</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>84727; 125088</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66136; 102339</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56728; 82447</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>246526; 307504</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>271730; 337479</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>218429; 277293</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>136311; 178056</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>356267</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>565526</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>698874</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>596362</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>187475</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>293146</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>397617</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>462534</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>543742</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>858672</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1096491</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1058896</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>321059; 390668</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>525848; 608997</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>656738; 743902</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>424486; 687327</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>163169; 213043</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>260875; 324745</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>363678; 436923</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>327510; 532977</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>497770; 585398</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>803461; 910473</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1038866; 1156850</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>839336; 1187946</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>152261</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>177443</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>230367</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>245513</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>120138</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>129464</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>177216</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>204985</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>272399</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>306907</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>407583</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>450498</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>129619; 174300</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>155464; 200586</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>208416; 254194</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>220435; 271649</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>102661; 141372</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>109413; 151919</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>155038; 199602</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>186085; 228439</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>244607; 304441</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>275888; 338981</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>376929; 439047</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>418020; 484115</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2155</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>685012</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>939789</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1092792</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>930117</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>404648</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>528131</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>656194</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>734783</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1089661</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1467920</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1748987</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1664900</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>635310; 729493</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>890749; 997745</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1039843; 1150247</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>720248; 1024288</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>367940; 443267</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>481568; 575339</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>608734; 701762</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>588826; 800478</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1031181; 1145058</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1404019; 1550651</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1677993; 1817881</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1449910; 1785932</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>